--- a/results/gurobi_cplex_comparison/seed_50_k_35.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_35.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.032</v>
+        <v>0.963</v>
       </c>
       <c r="F2">
-        <v>0.056</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.045</v>
+        <v>1.384</v>
       </c>
       <c r="F3">
-        <v>0.074</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.019</v>
+        <v>1.86</v>
       </c>
       <c r="F4">
-        <v>0.042</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.023</v>
+        <v>2.467</v>
       </c>
       <c r="F5">
-        <v>0.051</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.079</v>
+        <v>3.122</v>
       </c>
       <c r="F6">
-        <v>0.075</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.115</v>
+        <v>3.891</v>
       </c>
       <c r="F7">
-        <v>0.13</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.058</v>
+        <v>4.632</v>
       </c>
       <c r="F8">
-        <v>0.076</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08500000000000001</v>
+        <v>5.524</v>
       </c>
       <c r="F9">
-        <v>0.221</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.063</v>
+        <v>6.494</v>
       </c>
       <c r="F10">
-        <v>0.08699999999999999</v>
+        <v>1.356</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.046</v>
+        <v>7.575</v>
       </c>
       <c r="F11">
-        <v>0.075</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.141</v>
+        <v>8.669</v>
       </c>
       <c r="F12">
-        <v>8.407999999999999</v>
+        <v>37.865</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.103</v>
+        <v>9.853</v>
       </c>
       <c r="F13">
-        <v>31.244</v>
+        <v>113.309</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.169</v>
+        <v>11.218</v>
       </c>
       <c r="F14">
-        <v>7.906</v>
+        <v>117.604</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07000000000000001</v>
+        <v>12.438</v>
       </c>
       <c r="F15">
-        <v>7.776</v>
+        <v>84.999</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.289</v>
+        <v>14.07</v>
       </c>
       <c r="F16">
-        <v>12.408</v>
+        <v>103.967</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.65</v>
+        <v>15.964</v>
       </c>
       <c r="F17">
-        <v>3.907</v>
+        <v>140.267</v>
       </c>
     </row>
   </sheetData>
